--- a/PRIMERAS TABLAS.xlsx.xlsx
+++ b/PRIMERAS TABLAS.xlsx.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="313">
   <si>
     <t>PACIENTES</t>
   </si>
@@ -955,6 +955,9 @@
   </si>
   <si>
     <t>active_principle</t>
+  </si>
+  <si>
+    <t>COMPAÑÍA</t>
   </si>
 </sst>
 </file>
@@ -1059,20 +1062,20 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1357,20 +1360,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A238" workbookViewId="0">
-      <selection activeCell="E248" sqref="E248"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27:B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.140625" customWidth="1"/>
-    <col min="2" max="2" width="21.42578125" customWidth="1"/>
+    <col min="2" max="2" width="60.5703125" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
-    <col min="4" max="26" width="9.42578125" customWidth="1"/>
+    <col min="4" max="4" width="22" customWidth="1"/>
+    <col min="5" max="26" width="9.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="11"/>
@@ -1601,8 +1605,8 @@
       <c r="C25" s="1"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="14" t="s">
-        <v>52</v>
+      <c r="A26" s="10" t="s">
+        <v>312</v>
       </c>
       <c r="B26" s="11"/>
       <c r="C26" s="1" t="s">
@@ -1714,7 +1718,7 @@
       <c r="C38" s="1"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="14" t="s">
+      <c r="A39" s="10" t="s">
         <v>71</v>
       </c>
       <c r="B39" s="11"/>
@@ -1783,7 +1787,7 @@
       <c r="C46" s="1"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="14" t="s">
+      <c r="A47" s="10" t="s">
         <v>78</v>
       </c>
       <c r="B47" s="11"/>
@@ -1851,7 +1855,7 @@
       <c r="C54" s="1"/>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="14" t="s">
+      <c r="A55" s="10" t="s">
         <v>91</v>
       </c>
       <c r="B55" s="11"/>
@@ -1901,7 +1905,7 @@
       <c r="C60" s="1"/>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="14" t="s">
+      <c r="A61" s="10" t="s">
         <v>96</v>
       </c>
       <c r="B61" s="11"/>
@@ -1993,7 +1997,7 @@
       <c r="C70" s="1"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="13" t="s">
+      <c r="A71" s="12" t="s">
         <v>111</v>
       </c>
       <c r="B71" s="11"/>
@@ -2129,7 +2133,7 @@
       <c r="C86" s="1"/>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A87" s="13" t="s">
+      <c r="A87" s="12" t="s">
         <v>128</v>
       </c>
       <c r="B87" s="11"/>
@@ -2171,7 +2175,7 @@
       <c r="C91" s="1"/>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A92" s="13" t="s">
+      <c r="A92" s="12" t="s">
         <v>18</v>
       </c>
       <c r="B92" s="11"/>
@@ -2203,7 +2207,7 @@
       <c r="C95" s="1"/>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A96" s="13" t="s">
+      <c r="A96" s="12" t="s">
         <v>132</v>
       </c>
       <c r="B96" s="11"/>
@@ -2244,7 +2248,7 @@
       <c r="C100" s="1"/>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A101" s="13" t="s">
+      <c r="A101" s="12" t="s">
         <v>137</v>
       </c>
       <c r="B101" s="11"/>
@@ -2299,7 +2303,7 @@
       <c r="C107" s="1"/>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A108" s="10" t="s">
+      <c r="A108" s="13" t="s">
         <v>24</v>
       </c>
       <c r="B108" s="11"/>
@@ -2369,7 +2373,7 @@
       <c r="C115" s="1"/>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A116" s="13" t="s">
+      <c r="A116" s="12" t="s">
         <v>147</v>
       </c>
       <c r="B116" s="11"/>
@@ -2485,7 +2489,7 @@
       <c r="C128" s="1"/>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A129" s="10" t="s">
+      <c r="A129" s="13" t="s">
         <v>162</v>
       </c>
       <c r="B129" s="11"/>
@@ -2632,7 +2636,7 @@
       <c r="C145" s="1"/>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A146" s="12" t="s">
+      <c r="A146" s="15" t="s">
         <v>182</v>
       </c>
       <c r="B146" s="11"/>
@@ -2714,7 +2718,7 @@
       <c r="C155" s="1"/>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A156" s="12" t="s">
+      <c r="A156" s="15" t="s">
         <v>194</v>
       </c>
       <c r="B156" s="11"/>
@@ -2764,7 +2768,7 @@
       <c r="C161" s="1"/>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A162" s="12" t="s">
+      <c r="A162" s="15" t="s">
         <v>200</v>
       </c>
       <c r="B162" s="11"/>
@@ -2811,7 +2815,7 @@
       <c r="C166" s="1"/>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A167" s="12" t="s">
+      <c r="A167" s="15" t="s">
         <v>205</v>
       </c>
       <c r="B167" s="11"/>
@@ -2852,7 +2856,7 @@
       <c r="C171" s="1"/>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A172" s="12" t="s">
+      <c r="A172" s="15" t="s">
         <v>209</v>
       </c>
       <c r="B172" s="11"/>
@@ -2884,7 +2888,7 @@
       <c r="C175" s="1"/>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A176" s="12" t="s">
+      <c r="A176" s="15" t="s">
         <v>211</v>
       </c>
       <c r="B176" s="11"/>
@@ -2921,7 +2925,7 @@
       <c r="C179" s="1"/>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A180" s="12" t="s">
+      <c r="A180" s="15" t="s">
         <v>214</v>
       </c>
       <c r="B180" s="11"/>
@@ -2967,7 +2971,7 @@
       <c r="C185" s="1"/>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A186" s="12" t="s">
+      <c r="A186" s="15" t="s">
         <v>218</v>
       </c>
       <c r="B186" s="11"/>
@@ -3060,7 +3064,7 @@
       <c r="C196" s="1"/>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A197" s="12" t="s">
+      <c r="A197" s="15" t="s">
         <v>234</v>
       </c>
       <c r="B197" s="11"/>
@@ -3092,7 +3096,7 @@
       <c r="C200" s="1"/>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A201" s="12" t="s">
+      <c r="A201" s="15" t="s">
         <v>236</v>
       </c>
       <c r="B201" s="11"/>
@@ -3133,7 +3137,7 @@
       <c r="C205" s="1"/>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A206" s="12" t="s">
+      <c r="A206" s="15" t="s">
         <v>241</v>
       </c>
       <c r="B206" s="11"/>
@@ -3165,7 +3169,7 @@
       <c r="C209" s="1"/>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A210" s="12" t="s">
+      <c r="A210" s="15" t="s">
         <v>243</v>
       </c>
       <c r="B210" s="11"/>
@@ -3197,7 +3201,7 @@
       <c r="C213" s="1"/>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A214" s="10" t="s">
+      <c r="A214" s="13" t="s">
         <v>245</v>
       </c>
       <c r="B214" s="11"/>
@@ -3409,7 +3413,7 @@
       <c r="C237" s="1"/>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A238" s="12" t="s">
+      <c r="A238" s="15" t="s">
         <v>284</v>
       </c>
       <c r="B238" s="11"/>
@@ -3441,7 +3445,7 @@
       <c r="C241" s="1"/>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A242" s="12" t="s">
+      <c r="A242" s="15" t="s">
         <v>286</v>
       </c>
       <c r="B242" s="11"/>
@@ -3482,7 +3486,7 @@
       <c r="C246" s="1"/>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A247" s="12" t="s">
+      <c r="A247" s="15" t="s">
         <v>289</v>
       </c>
       <c r="B247" s="11"/>
@@ -3514,7 +3518,7 @@
       <c r="C250" s="1"/>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A251" s="10" t="s">
+      <c r="A251" s="13" t="s">
         <v>291</v>
       </c>
       <c r="B251" s="11"/>
@@ -7325,6 +7329,27 @@
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="A251:B251"/>
+    <mergeCell ref="A247:B247"/>
+    <mergeCell ref="A242:B242"/>
+    <mergeCell ref="A238:B238"/>
+    <mergeCell ref="A186:B186"/>
+    <mergeCell ref="A197:B197"/>
+    <mergeCell ref="A201:B201"/>
+    <mergeCell ref="A214:B214"/>
+    <mergeCell ref="A206:B206"/>
+    <mergeCell ref="A210:B210"/>
+    <mergeCell ref="A167:B167"/>
+    <mergeCell ref="A172:B172"/>
+    <mergeCell ref="A162:B162"/>
+    <mergeCell ref="A176:B176"/>
+    <mergeCell ref="A180:B180"/>
+    <mergeCell ref="A146:B146"/>
+    <mergeCell ref="A156:B156"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="A101:B101"/>
     <mergeCell ref="A61:B61"/>
     <mergeCell ref="A55:B55"/>
     <mergeCell ref="A116:B116"/>
@@ -7335,27 +7360,6 @@
     <mergeCell ref="A71:B71"/>
     <mergeCell ref="A108:B108"/>
     <mergeCell ref="A47:B47"/>
-    <mergeCell ref="A146:B146"/>
-    <mergeCell ref="A156:B156"/>
-    <mergeCell ref="A87:B87"/>
-    <mergeCell ref="A92:B92"/>
-    <mergeCell ref="A96:B96"/>
-    <mergeCell ref="A101:B101"/>
-    <mergeCell ref="A167:B167"/>
-    <mergeCell ref="A172:B172"/>
-    <mergeCell ref="A162:B162"/>
-    <mergeCell ref="A176:B176"/>
-    <mergeCell ref="A180:B180"/>
-    <mergeCell ref="A251:B251"/>
-    <mergeCell ref="A247:B247"/>
-    <mergeCell ref="A242:B242"/>
-    <mergeCell ref="A238:B238"/>
-    <mergeCell ref="A186:B186"/>
-    <mergeCell ref="A197:B197"/>
-    <mergeCell ref="A201:B201"/>
-    <mergeCell ref="A214:B214"/>
-    <mergeCell ref="A206:B206"/>
-    <mergeCell ref="A210:B210"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/PRIMERAS TABLAS.xlsx.xlsx
+++ b/PRIMERAS TABLAS.xlsx.xlsx
@@ -954,27 +954,21 @@
     <t>atention_level</t>
   </si>
   <si>
-    <t>active_principle</t>
-  </si>
-  <si>
     <t>COMPAÑÍA</t>
+  </si>
+  <si>
+    <t>active_princio</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FFE36C09"/>
-      <name val="Arial"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1000,29 +994,51 @@
     <font>
       <b/>
       <sz val="10"/>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF777777"/>
-      <name val="Arial"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFE36C09"/>
-      <name val="Calibri"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1045,13 +1061,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1062,22 +1078,23 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1360,24 +1377,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27:B28"/>
+    <sheetView tabSelected="1" topLeftCell="A214" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B223" sqref="B223"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.140625" customWidth="1"/>
-    <col min="2" max="2" width="60.5703125" customWidth="1"/>
-    <col min="3" max="3" width="10" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" customWidth="1"/>
+    <col min="3" max="3" width="25.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22" customWidth="1"/>
     <col min="5" max="26" width="9.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
+      <c r="B1" s="14"/>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1605,10 +1622,10 @@
       <c r="C25" s="1"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="10" t="s">
-        <v>312</v>
-      </c>
-      <c r="B26" s="11"/>
+      <c r="A26" s="16" t="s">
+        <v>311</v>
+      </c>
+      <c r="B26" s="17"/>
       <c r="C26" s="1" t="s">
         <v>53</v>
       </c>
@@ -1718,10 +1735,10 @@
       <c r="C38" s="1"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="10" t="s">
+      <c r="A39" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="B39" s="11"/>
+      <c r="B39" s="17"/>
       <c r="C39" s="1" t="s">
         <v>72</v>
       </c>
@@ -1787,10 +1804,10 @@
       <c r="C46" s="1"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="10" t="s">
+      <c r="A47" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="B47" s="11"/>
+      <c r="B47" s="17"/>
       <c r="C47" s="1" t="s">
         <v>79</v>
       </c>
@@ -1855,10 +1872,10 @@
       <c r="C54" s="1"/>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="10" t="s">
+      <c r="A55" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="B55" s="11"/>
+      <c r="B55" s="17"/>
       <c r="C55" s="1" t="s">
         <v>92</v>
       </c>
@@ -1905,10 +1922,10 @@
       <c r="C60" s="1"/>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="10" t="s">
+      <c r="A61" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="B61" s="11"/>
+      <c r="B61" s="17"/>
       <c r="C61" s="1" t="s">
         <v>97</v>
       </c>
@@ -1997,10 +2014,10 @@
       <c r="C70" s="1"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="12" t="s">
+      <c r="A71" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="B71" s="11"/>
+      <c r="B71" s="14"/>
       <c r="C71" s="1" t="s">
         <v>112</v>
       </c>
@@ -2133,10 +2150,10 @@
       <c r="C86" s="1"/>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A87" s="12" t="s">
+      <c r="A87" s="15" t="s">
         <v>128</v>
       </c>
-      <c r="B87" s="11"/>
+      <c r="B87" s="14"/>
       <c r="C87" s="1" t="s">
         <v>129</v>
       </c>
@@ -2175,10 +2192,10 @@
       <c r="C91" s="1"/>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A92" s="12" t="s">
+      <c r="A92" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B92" s="11"/>
+      <c r="B92" s="14"/>
       <c r="C92" s="1" t="s">
         <v>130</v>
       </c>
@@ -2207,10 +2224,10 @@
       <c r="C95" s="1"/>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A96" s="12" t="s">
+      <c r="A96" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="B96" s="11"/>
+      <c r="B96" s="14"/>
       <c r="C96" s="1" t="s">
         <v>133</v>
       </c>
@@ -2248,11 +2265,11 @@
       <c r="C100" s="1"/>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A101" s="12" t="s">
+      <c r="A101" s="15" t="s">
         <v>137</v>
       </c>
-      <c r="B101" s="11"/>
-      <c r="C101" s="8" t="s">
+      <c r="B101" s="14"/>
+      <c r="C101" s="9" t="s">
         <v>138</v>
       </c>
     </row>
@@ -2306,7 +2323,7 @@
       <c r="A108" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B108" s="11"/>
+      <c r="B108" s="14"/>
       <c r="C108" s="1" t="s">
         <v>141</v>
       </c>
@@ -2373,10 +2390,10 @@
       <c r="C115" s="1"/>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A116" s="12" t="s">
+      <c r="A116" s="15" t="s">
         <v>147</v>
       </c>
-      <c r="B116" s="11"/>
+      <c r="B116" s="14"/>
       <c r="C116" s="1" t="s">
         <v>148</v>
       </c>
@@ -2492,7 +2509,7 @@
       <c r="A129" s="13" t="s">
         <v>162</v>
       </c>
-      <c r="B129" s="11"/>
+      <c r="B129" s="14"/>
       <c r="C129" s="1" t="s">
         <v>163</v>
       </c>
@@ -2519,91 +2536,91 @@
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A132" s="1" t="s">
+      <c r="A132" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="B132" s="1"/>
+      <c r="B132" s="8"/>
       <c r="C132" s="1" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A133" s="1" t="s">
+      <c r="A133" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="B133" s="1"/>
+      <c r="B133" s="8"/>
       <c r="C133" s="1" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A134" s="1" t="s">
+      <c r="A134" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="B134" s="1"/>
+      <c r="B134" s="8"/>
       <c r="C134" s="1" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A135" s="1" t="s">
+      <c r="A135" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="B135" s="1"/>
+      <c r="B135" s="8"/>
       <c r="C135" s="1" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A136" s="1" t="s">
+      <c r="A136" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="B136" s="1"/>
+      <c r="B136" s="8"/>
       <c r="C136" s="1" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A137" s="1" t="s">
+      <c r="A137" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="B137" s="1"/>
+      <c r="B137" s="8"/>
       <c r="C137" s="1" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A138" s="1" t="s">
+      <c r="A138" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="B138" s="1"/>
+      <c r="B138" s="8"/>
       <c r="C138" s="1" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A139" s="9" t="s">
+      <c r="A139" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="B139" s="1"/>
+      <c r="B139" s="8"/>
       <c r="C139" s="1" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A140" s="9" t="s">
+      <c r="A140" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="B140" s="1"/>
+      <c r="B140" s="8"/>
       <c r="C140" s="1" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A141" s="1" t="s">
+      <c r="A141" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="B141" s="1" t="s">
+      <c r="B141" s="8" t="s">
         <v>180</v>
       </c>
       <c r="C141" s="1"/>
@@ -2612,196 +2629,196 @@
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A142" s="1" t="s">
+      <c r="A142" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="B142" s="1"/>
+      <c r="B142" s="8"/>
       <c r="C142" s="1" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A143" s="1"/>
-      <c r="B143" s="1"/>
+      <c r="A143" s="8"/>
+      <c r="B143" s="8"/>
       <c r="C143" s="1"/>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A144" s="1"/>
-      <c r="B144" s="1"/>
+      <c r="A144" s="8"/>
+      <c r="B144" s="8"/>
       <c r="C144" s="1"/>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A145" s="1"/>
-      <c r="B145" s="1"/>
+      <c r="A145" s="8"/>
+      <c r="B145" s="8"/>
       <c r="C145" s="1"/>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A146" s="15" t="s">
+      <c r="A146" s="13" t="s">
         <v>182</v>
       </c>
-      <c r="B146" s="11"/>
+      <c r="B146" s="14"/>
       <c r="C146" s="1" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A147" s="1" t="s">
+      <c r="A147" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="B147" s="1" t="s">
+      <c r="B147" s="8" t="s">
         <v>81</v>
       </c>
       <c r="C147" s="1"/>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A148" s="1" t="s">
+      <c r="A148" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="B148" s="1" t="s">
+      <c r="B148" s="8" t="s">
         <v>186</v>
       </c>
       <c r="C148" s="1"/>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A149" s="1" t="s">
+      <c r="A149" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="B149" s="1" t="s">
+      <c r="B149" s="8" t="s">
         <v>187</v>
       </c>
       <c r="C149" s="1"/>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A150" s="1" t="s">
+      <c r="A150" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="B150" s="1" t="s">
+      <c r="B150" s="8" t="s">
         <v>189</v>
       </c>
       <c r="C150" s="1"/>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A151" s="1" t="s">
+      <c r="A151" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="B151" s="1" t="s">
+      <c r="B151" s="8" t="s">
         <v>190</v>
       </c>
       <c r="C151" s="1"/>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A152" s="1" t="s">
+      <c r="A152" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="B152" s="1" t="s">
+      <c r="B152" s="8" t="s">
         <v>192</v>
       </c>
       <c r="C152" s="1"/>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A153" s="1" t="s">
+      <c r="A153" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="B153" s="1" t="s">
+      <c r="B153" s="8" t="s">
         <v>193</v>
       </c>
       <c r="C153" s="1"/>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A154" s="1"/>
-      <c r="B154" s="1"/>
+      <c r="A154" s="8"/>
+      <c r="B154" s="8"/>
       <c r="C154" s="1"/>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A155" s="1"/>
-      <c r="B155" s="1"/>
+      <c r="A155" s="8"/>
+      <c r="B155" s="8"/>
       <c r="C155" s="1"/>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A156" s="15" t="s">
+      <c r="A156" s="13" t="s">
         <v>194</v>
       </c>
-      <c r="B156" s="11"/>
+      <c r="B156" s="14"/>
       <c r="C156" s="1" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A157" s="1" t="s">
+      <c r="A157" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="B157" s="1" t="s">
+      <c r="B157" s="8" t="s">
         <v>81</v>
       </c>
       <c r="C157" s="1"/>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A158" s="1" t="s">
+      <c r="A158" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="B158" s="1" t="s">
+      <c r="B158" s="8" t="s">
         <v>197</v>
       </c>
       <c r="C158" s="1"/>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A159" s="1" t="s">
+      <c r="A159" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="B159" s="1" t="s">
+      <c r="B159" s="8" t="s">
         <v>199</v>
       </c>
       <c r="C159" s="1"/>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A160" s="1" t="s">
+      <c r="A160" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="B160" s="1" t="s">
+      <c r="B160" s="8" t="s">
         <v>83</v>
       </c>
       <c r="C160" s="1"/>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A161" s="1"/>
-      <c r="B161" s="1"/>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A161" s="8"/>
+      <c r="B161" s="8"/>
       <c r="C161" s="1"/>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A162" s="15" t="s">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A162" s="13" t="s">
         <v>200</v>
       </c>
-      <c r="B162" s="11"/>
+      <c r="B162" s="14"/>
       <c r="C162" s="1"/>
       <c r="D162" s="1" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A163" s="1" t="s">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A163" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="B163" s="1"/>
+      <c r="B163" s="8"/>
       <c r="C163" s="1"/>
       <c r="D163" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A164" s="1" t="s">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A164" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="B164" s="1"/>
+      <c r="B164" s="8"/>
       <c r="C164" s="1"/>
       <c r="D164" s="1" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A165" s="1" t="s">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A165" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="B165" s="1" t="s">
+      <c r="B165" s="8" t="s">
         <v>204</v>
       </c>
       <c r="C165" s="1"/>
@@ -2809,244 +2826,241 @@
         <v>47</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A166" s="1"/>
-      <c r="B166" s="1"/>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A166" s="8"/>
+      <c r="B166" s="8"/>
       <c r="C166" s="1"/>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A167" s="15" t="s">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A167" s="13" t="s">
         <v>205</v>
       </c>
-      <c r="B167" s="11"/>
+      <c r="B167" s="14"/>
       <c r="C167" s="1" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A168" s="1" t="s">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A168" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="B168" s="1" t="s">
+      <c r="B168" s="8" t="s">
         <v>81</v>
       </c>
       <c r="C168" s="1"/>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A169" s="1" t="s">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A169" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="B169" s="1" t="s">
+      <c r="B169" s="8" t="s">
         <v>203</v>
       </c>
       <c r="C169" s="1"/>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A170" s="1" t="s">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A170" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="B170" s="1" t="s">
+      <c r="B170" s="8" t="s">
         <v>208</v>
       </c>
       <c r="C170" s="1"/>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A171" s="1"/>
-      <c r="B171" s="1"/>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A171" s="8"/>
+      <c r="B171" s="8"/>
       <c r="C171" s="1"/>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A172" s="15" t="s">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A172" s="13" t="s">
         <v>209</v>
       </c>
-      <c r="B172" s="11"/>
-      <c r="C172" s="1" t="s">
+      <c r="B172" s="14"/>
+      <c r="C172" s="10" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A173" s="1" t="s">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A173" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="B173" s="1"/>
+      <c r="B173" s="8"/>
       <c r="C173" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A174" s="1" t="s">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A174" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="B174" s="1"/>
+      <c r="B174" s="8"/>
       <c r="C174" s="1" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A175" s="1"/>
-      <c r="B175" s="1"/>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A175" s="8"/>
+      <c r="B175" s="8"/>
       <c r="C175" s="1"/>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A176" s="15" t="s">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A176" s="13" t="s">
         <v>211</v>
       </c>
-      <c r="B176" s="11"/>
-      <c r="C176" s="1"/>
-      <c r="E176" s="1" t="s">
+      <c r="B176" s="14"/>
+      <c r="C176" s="1" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A177" s="1" t="s">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A177" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="B177" s="1"/>
-      <c r="C177" s="1"/>
-      <c r="E177" s="1" t="s">
+      <c r="B177" s="8"/>
+      <c r="C177" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A178" s="1" t="s">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A178" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="B178" s="1" t="s">
+      <c r="B178" s="8" t="s">
         <v>213</v>
       </c>
-      <c r="C178" s="1"/>
-      <c r="E178" s="1" t="s">
+      <c r="C178" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A179" s="1"/>
-      <c r="B179" s="1"/>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A179" s="8"/>
+      <c r="B179" s="8"/>
       <c r="C179" s="1"/>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A180" s="15" t="s">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A180" s="13" t="s">
         <v>214</v>
       </c>
-      <c r="B180" s="11"/>
+      <c r="B180" s="14"/>
       <c r="C180" s="1" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A181" s="1" t="s">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A181" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="B181" s="4"/>
+      <c r="B181" s="8"/>
       <c r="C181" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A182" s="1" t="s">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A182" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="B182" s="1"/>
+      <c r="B182" s="8"/>
       <c r="C182" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A183" s="1" t="s">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A183" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="B183" s="1"/>
+      <c r="B183" s="8"/>
       <c r="C183" s="1" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A184" s="1"/>
-      <c r="B184" s="1"/>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A184" s="8"/>
+      <c r="B184" s="8"/>
       <c r="C184" s="1"/>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A185" s="1"/>
-      <c r="B185" s="1"/>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A185" s="8"/>
+      <c r="B185" s="8"/>
       <c r="C185" s="1"/>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A186" s="15" t="s">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A186" s="13" t="s">
         <v>218</v>
       </c>
-      <c r="B186" s="11"/>
+      <c r="B186" s="14"/>
       <c r="C186" s="1" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A187" s="1" t="s">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A187" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="B187" s="1"/>
+      <c r="B187" s="8"/>
       <c r="C187" s="1" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A188" s="1" t="s">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A188" s="8" t="s">
         <v>221</v>
       </c>
-      <c r="B188" s="1"/>
+      <c r="B188" s="8"/>
       <c r="C188" s="1" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A189" s="1" t="s">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A189" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="B189" s="1"/>
+      <c r="B189" s="8"/>
       <c r="C189" s="1" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A190" s="1" t="s">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A190" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="B190" s="1"/>
+      <c r="B190" s="8"/>
       <c r="C190" s="1" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A191" s="1" t="s">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A191" s="8" t="s">
         <v>225</v>
       </c>
-      <c r="B191" s="1"/>
+      <c r="B191" s="8"/>
       <c r="C191" s="1" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A192" s="1" t="s">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A192" s="8" t="s">
         <v>227</v>
       </c>
-      <c r="B192" s="1"/>
+      <c r="B192" s="8"/>
       <c r="C192" s="1" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A193" s="1" t="s">
+      <c r="A193" s="8" t="s">
         <v>229</v>
       </c>
-      <c r="B193" s="1"/>
+      <c r="B193" s="8"/>
       <c r="C193" s="1" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A194" s="1" t="s">
+      <c r="A194" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="B194" s="1" t="s">
+      <c r="B194" s="8" t="s">
         <v>232</v>
       </c>
       <c r="C194" s="1" t="s">
@@ -3054,528 +3068,528 @@
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A195" s="1"/>
-      <c r="B195" s="1"/>
+      <c r="A195" s="8"/>
+      <c r="B195" s="8"/>
       <c r="C195" s="1"/>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A196" s="1"/>
-      <c r="B196" s="1"/>
+      <c r="A196" s="8"/>
+      <c r="B196" s="8"/>
       <c r="C196" s="1"/>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A197" s="15" t="s">
+      <c r="A197" s="13" t="s">
         <v>234</v>
       </c>
-      <c r="B197" s="11"/>
+      <c r="B197" s="14"/>
       <c r="C197" s="1" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A198" s="1" t="s">
+      <c r="A198" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="B198" s="1"/>
+      <c r="B198" s="8"/>
       <c r="C198" s="1" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A199" s="1" t="s">
+      <c r="A199" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="B199" s="1"/>
+      <c r="B199" s="8"/>
       <c r="C199" s="1" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A200" s="1"/>
-      <c r="B200" s="1"/>
+      <c r="A200" s="8"/>
+      <c r="B200" s="8"/>
       <c r="C200" s="1"/>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A201" s="15" t="s">
+      <c r="A201" s="13" t="s">
         <v>236</v>
       </c>
-      <c r="B201" s="11"/>
+      <c r="B201" s="14"/>
       <c r="C201" s="1" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A202" s="1" t="s">
+      <c r="A202" s="8" t="s">
         <v>238</v>
       </c>
-      <c r="B202" s="1"/>
+      <c r="B202" s="8"/>
       <c r="C202" s="1" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A203" s="1" t="s">
+      <c r="A203" s="8" t="s">
         <v>240</v>
       </c>
-      <c r="B203" s="1"/>
+      <c r="B203" s="8"/>
       <c r="C203" s="1" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A204" s="1" t="s">
+      <c r="A204" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="B204" s="1"/>
+      <c r="B204" s="8"/>
       <c r="C204" s="1" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A205" s="1"/>
-      <c r="B205" s="1"/>
+      <c r="A205" s="8"/>
+      <c r="B205" s="8"/>
       <c r="C205" s="1"/>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A206" s="15" t="s">
+      <c r="A206" s="13" t="s">
         <v>241</v>
       </c>
-      <c r="B206" s="11"/>
+      <c r="B206" s="14"/>
       <c r="C206" s="1" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A207" s="1" t="s">
+      <c r="A207" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="B207" s="1"/>
+      <c r="B207" s="8"/>
       <c r="C207" s="1" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A208" s="1" t="s">
+      <c r="A208" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="B208" s="1"/>
+      <c r="B208" s="8"/>
       <c r="C208" s="1" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A209" s="1"/>
-      <c r="B209" s="1"/>
+      <c r="A209" s="8"/>
+      <c r="B209" s="8"/>
       <c r="C209" s="1"/>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A210" s="15" t="s">
+      <c r="A210" s="13" t="s">
         <v>243</v>
       </c>
-      <c r="B210" s="11"/>
-      <c r="C210" s="1" t="s">
+      <c r="B210" s="14"/>
+      <c r="C210" s="18" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A211" s="1" t="s">
+      <c r="A211" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="B211" s="1"/>
+      <c r="B211" s="8"/>
       <c r="C211" s="1" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A212" s="1" t="s">
+      <c r="A212" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="B212" s="1"/>
+      <c r="B212" s="8"/>
       <c r="C212" s="1" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A213" s="1"/>
-      <c r="B213" s="1"/>
+      <c r="A213" s="8"/>
+      <c r="B213" s="8"/>
       <c r="C213" s="1"/>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" s="13" t="s">
         <v>245</v>
       </c>
-      <c r="B214" s="11"/>
+      <c r="B214" s="14"/>
       <c r="C214" s="1" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A215" s="1" t="s">
+      <c r="A215" s="8" t="s">
         <v>247</v>
       </c>
-      <c r="B215" s="1" t="s">
+      <c r="B215" s="8" t="s">
         <v>81</v>
       </c>
       <c r="C215" s="1"/>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A216" s="1" t="s">
+      <c r="A216" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="B216" s="1" t="s">
+      <c r="B216" s="8" t="s">
         <v>83</v>
       </c>
       <c r="C216" s="1"/>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A217" s="1" t="s">
+      <c r="A217" s="8" t="s">
         <v>248</v>
       </c>
-      <c r="B217" s="1" t="s">
+      <c r="B217" s="8" t="s">
         <v>249</v>
       </c>
       <c r="C217" s="1"/>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A218" s="1" t="s">
+      <c r="A218" s="8" t="s">
         <v>250</v>
       </c>
-      <c r="B218" s="1" t="s">
+      <c r="B218" s="8" t="s">
         <v>251</v>
       </c>
       <c r="C218" s="1"/>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A219" s="1" t="s">
+      <c r="A219" s="8" t="s">
         <v>252</v>
       </c>
-      <c r="B219" s="1" t="s">
+      <c r="B219" s="8" t="s">
         <v>253</v>
       </c>
       <c r="C219" s="1"/>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A220" s="1" t="s">
+      <c r="A220" s="8" t="s">
         <v>254</v>
       </c>
-      <c r="B220" s="1" t="s">
+      <c r="B220" s="8" t="s">
         <v>255</v>
       </c>
       <c r="C220" s="1"/>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A221" s="1" t="s">
+      <c r="A221" s="8" t="s">
         <v>256</v>
       </c>
-      <c r="B221" s="1" t="s">
+      <c r="B221" s="8" t="s">
         <v>257</v>
       </c>
       <c r="C221" s="1"/>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A222" s="1" t="s">
+      <c r="A222" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="B222" s="1" t="s">
+      <c r="B222" s="8" t="s">
         <v>220</v>
       </c>
       <c r="C222" s="1"/>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A223" s="1" t="s">
+      <c r="A223" s="8" t="s">
         <v>258</v>
       </c>
-      <c r="B223" s="1" t="s">
-        <v>311</v>
+      <c r="B223" s="8" t="s">
+        <v>312</v>
       </c>
       <c r="C223" s="1"/>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A224" s="1" t="s">
+      <c r="A224" s="8" t="s">
         <v>259</v>
       </c>
-      <c r="B224" s="1" t="s">
+      <c r="B224" s="8" t="s">
         <v>260</v>
       </c>
       <c r="C224" s="1"/>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A225" s="1" t="s">
+      <c r="A225" s="8" t="s">
         <v>261</v>
       </c>
-      <c r="B225" s="1" t="s">
+      <c r="B225" s="8" t="s">
         <v>262</v>
       </c>
       <c r="C225" s="1"/>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A226" s="1" t="s">
+      <c r="A226" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="B226" s="1" t="s">
+      <c r="B226" s="8" t="s">
         <v>263</v>
       </c>
       <c r="C226" s="1"/>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A227" s="1" t="s">
+      <c r="A227" s="8" t="s">
         <v>264</v>
       </c>
-      <c r="B227" s="1" t="s">
+      <c r="B227" s="8" t="s">
         <v>265</v>
       </c>
       <c r="C227" s="1"/>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A228" s="1" t="s">
+      <c r="A228" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="B228" s="1" t="s">
+      <c r="B228" s="8" t="s">
         <v>267</v>
       </c>
       <c r="C228" s="1"/>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A229" s="1" t="s">
+      <c r="A229" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="B229" s="1" t="s">
+      <c r="B229" s="8" t="s">
         <v>269</v>
       </c>
       <c r="C229" s="1"/>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A230" s="1" t="s">
+      <c r="A230" s="8" t="s">
         <v>270</v>
       </c>
-      <c r="B230" s="1" t="s">
+      <c r="B230" s="8" t="s">
         <v>271</v>
       </c>
       <c r="C230" s="1"/>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A231" s="1" t="s">
+      <c r="A231" s="8" t="s">
         <v>272</v>
       </c>
-      <c r="B231" s="1" t="s">
+      <c r="B231" s="8" t="s">
         <v>273</v>
       </c>
       <c r="C231" s="1"/>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A232" s="1" t="s">
+      <c r="A232" s="8" t="s">
         <v>274</v>
       </c>
-      <c r="B232" s="1" t="s">
+      <c r="B232" s="8" t="s">
         <v>275</v>
       </c>
       <c r="C232" s="1"/>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A233" s="1" t="s">
+      <c r="A233" s="8" t="s">
         <v>276</v>
       </c>
-      <c r="B233" s="1" t="s">
+      <c r="B233" s="8" t="s">
         <v>277</v>
       </c>
       <c r="C233" s="1"/>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A234" s="1" t="s">
+      <c r="A234" s="8" t="s">
         <v>278</v>
       </c>
-      <c r="B234" s="1" t="s">
+      <c r="B234" s="8" t="s">
         <v>279</v>
       </c>
       <c r="C234" s="1"/>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A235" s="1" t="s">
+      <c r="A235" s="8" t="s">
         <v>280</v>
       </c>
-      <c r="B235" s="1" t="s">
+      <c r="B235" s="8" t="s">
         <v>281</v>
       </c>
       <c r="C235" s="1"/>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A236" s="1" t="s">
+      <c r="A236" s="8" t="s">
         <v>282</v>
       </c>
-      <c r="B236" s="1" t="s">
+      <c r="B236" s="8" t="s">
         <v>283</v>
       </c>
       <c r="C236" s="1"/>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A237" s="1"/>
-      <c r="B237" s="1"/>
+      <c r="A237" s="8"/>
+      <c r="B237" s="8"/>
       <c r="C237" s="1"/>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A238" s="15" t="s">
+      <c r="A238" s="13" t="s">
         <v>284</v>
       </c>
-      <c r="B238" s="11"/>
+      <c r="B238" s="14"/>
       <c r="C238" s="1" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A239" s="1" t="s">
+      <c r="A239" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="B239" s="1"/>
+      <c r="B239" s="8"/>
       <c r="C239" s="1" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A240" s="1" t="s">
+      <c r="A240" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="B240" s="1"/>
+      <c r="B240" s="8"/>
       <c r="C240" s="1" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A241" s="1"/>
-      <c r="B241" s="1"/>
+      <c r="A241" s="8"/>
+      <c r="B241" s="8"/>
       <c r="C241" s="1"/>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A242" s="15" t="s">
+      <c r="A242" s="13" t="s">
         <v>286</v>
       </c>
-      <c r="B242" s="11"/>
+      <c r="B242" s="14"/>
       <c r="C242" s="1" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A243" s="1" t="s">
+      <c r="A243" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="B243" s="1"/>
+      <c r="B243" s="8"/>
       <c r="C243" s="1" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A244" s="1" t="s">
+      <c r="A244" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="B244" s="1"/>
+      <c r="B244" s="8"/>
       <c r="C244" s="1" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A245" s="1" t="s">
+      <c r="A245" s="8" t="s">
         <v>288</v>
       </c>
-      <c r="B245" s="1"/>
+      <c r="B245" s="8"/>
       <c r="C245" s="1" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A246" s="1"/>
-      <c r="B246" s="1"/>
+      <c r="A246" s="8"/>
+      <c r="B246" s="8"/>
       <c r="C246" s="1"/>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A247" s="15" t="s">
+      <c r="A247" s="11" t="s">
         <v>289</v>
       </c>
-      <c r="B247" s="11"/>
+      <c r="B247" s="12"/>
       <c r="C247" s="1" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A248" s="1" t="s">
+      <c r="A248" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="B248" s="1"/>
+      <c r="B248" s="8"/>
       <c r="C248" s="1" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A249" s="1" t="s">
+      <c r="A249" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="B249" s="1"/>
+      <c r="B249" s="8"/>
       <c r="C249" s="1" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A250" s="1"/>
-      <c r="B250" s="1"/>
+      <c r="A250" s="8"/>
+      <c r="B250" s="8"/>
       <c r="C250" s="1"/>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A251" s="13" t="s">
+      <c r="A251" s="11" t="s">
         <v>291</v>
       </c>
-      <c r="B251" s="11"/>
+      <c r="B251" s="12"/>
       <c r="C251" s="1" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A252" s="1" t="s">
+      <c r="A252" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="B252" s="1"/>
+      <c r="B252" s="8"/>
       <c r="C252" s="1" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A253" s="1" t="s">
+      <c r="A253" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="B253" s="1"/>
+      <c r="B253" s="8"/>
       <c r="C253" s="1" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A254" s="1" t="s">
+      <c r="A254" s="8" t="s">
         <v>286</v>
       </c>
-      <c r="B254" s="1"/>
+      <c r="B254" s="8"/>
       <c r="C254" s="1" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A255" s="1" t="s">
+      <c r="A255" s="8" t="s">
         <v>294</v>
       </c>
-      <c r="B255" s="1"/>
+      <c r="B255" s="8"/>
       <c r="C255" s="1" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A256" s="1" t="s">
+      <c r="A256" s="8" t="s">
         <v>296</v>
       </c>
-      <c r="B256" s="1"/>
+      <c r="B256" s="8"/>
       <c r="C256" s="1" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A257" s="1" t="s">
+      <c r="A257" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="B257" s="1" t="s">
+      <c r="B257" s="8" t="s">
         <v>298</v>
       </c>
       <c r="C257" s="1" t="s">
@@ -3583,10 +3597,10 @@
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A258" s="1" t="s">
+      <c r="A258" s="8" t="s">
         <v>299</v>
       </c>
-      <c r="B258" s="1" t="s">
+      <c r="B258" s="8" t="s">
         <v>300</v>
       </c>
       <c r="C258" s="1" t="s">
@@ -3594,10 +3608,10 @@
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A259" s="1" t="s">
+      <c r="A259" s="8" t="s">
         <v>302</v>
       </c>
-      <c r="B259" s="1" t="s">
+      <c r="B259" s="8" t="s">
         <v>300</v>
       </c>
       <c r="C259" s="1" t="s">
@@ -3605,28 +3619,28 @@
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A260" s="1" t="s">
+      <c r="A260" s="8" t="s">
         <v>304</v>
       </c>
-      <c r="B260" s="1"/>
+      <c r="B260" s="8"/>
       <c r="C260" s="1" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A261" s="1" t="s">
+      <c r="A261" s="8" t="s">
         <v>306</v>
       </c>
-      <c r="B261" s="1"/>
+      <c r="B261" s="8"/>
       <c r="C261" s="1" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A262" s="1" t="s">
+      <c r="A262" s="8" t="s">
         <v>308</v>
       </c>
-      <c r="B262" s="1" t="s">
+      <c r="B262" s="8" t="s">
         <v>309</v>
       </c>
       <c r="C262" s="1" t="s">
@@ -3634,337 +3648,337 @@
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A263" s="1" t="s">
+      <c r="A263" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="B263" s="1"/>
+      <c r="B263" s="8"/>
       <c r="C263" s="1" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A264" s="1"/>
-      <c r="B264" s="1"/>
+      <c r="A264" s="8"/>
+      <c r="B264" s="8"/>
       <c r="C264" s="1"/>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A265" s="1"/>
-      <c r="B265" s="1"/>
+      <c r="A265" s="8"/>
+      <c r="B265" s="8"/>
       <c r="C265" s="1"/>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A266" s="1"/>
-      <c r="B266" s="1"/>
+      <c r="A266" s="8"/>
+      <c r="B266" s="8"/>
       <c r="C266" s="1"/>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A267" s="1"/>
-      <c r="B267" s="1"/>
+      <c r="A267" s="8"/>
+      <c r="B267" s="8"/>
       <c r="C267" s="1"/>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A268" s="1"/>
-      <c r="B268" s="1"/>
+      <c r="A268" s="8"/>
+      <c r="B268" s="8"/>
       <c r="C268" s="1"/>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A269" s="1"/>
-      <c r="B269" s="1"/>
+      <c r="A269" s="8"/>
+      <c r="B269" s="8"/>
       <c r="C269" s="1"/>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A270" s="1"/>
-      <c r="B270" s="1"/>
+      <c r="A270" s="8"/>
+      <c r="B270" s="8"/>
       <c r="C270" s="1"/>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A271" s="1"/>
-      <c r="B271" s="1"/>
+      <c r="A271" s="8"/>
+      <c r="B271" s="8"/>
       <c r="C271" s="1"/>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A272" s="1"/>
-      <c r="B272" s="1"/>
+      <c r="A272" s="8"/>
+      <c r="B272" s="8"/>
       <c r="C272" s="1"/>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A273" s="1"/>
-      <c r="B273" s="1"/>
+      <c r="A273" s="8"/>
+      <c r="B273" s="8"/>
       <c r="C273" s="1"/>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A274" s="1"/>
-      <c r="B274" s="1"/>
+      <c r="A274" s="8"/>
+      <c r="B274" s="8"/>
       <c r="C274" s="1"/>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A275" s="1"/>
-      <c r="B275" s="1"/>
+      <c r="A275" s="8"/>
+      <c r="B275" s="8"/>
       <c r="C275" s="1"/>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A276" s="1"/>
-      <c r="B276" s="1"/>
+      <c r="A276" s="8"/>
+      <c r="B276" s="8"/>
       <c r="C276" s="1"/>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A277" s="1"/>
-      <c r="B277" s="1"/>
+      <c r="A277" s="8"/>
+      <c r="B277" s="8"/>
       <c r="C277" s="1"/>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A278" s="1"/>
-      <c r="B278" s="1"/>
+      <c r="A278" s="8"/>
+      <c r="B278" s="8"/>
       <c r="C278" s="1"/>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A279" s="1"/>
-      <c r="B279" s="1"/>
+      <c r="A279" s="8"/>
+      <c r="B279" s="8"/>
       <c r="C279" s="1"/>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A280" s="1"/>
-      <c r="B280" s="1"/>
+      <c r="A280" s="8"/>
+      <c r="B280" s="8"/>
       <c r="C280" s="1"/>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A281" s="1"/>
-      <c r="B281" s="1"/>
+      <c r="A281" s="8"/>
+      <c r="B281" s="8"/>
       <c r="C281" s="1"/>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A282" s="1"/>
-      <c r="B282" s="1"/>
+      <c r="A282" s="8"/>
+      <c r="B282" s="8"/>
       <c r="C282" s="1"/>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A283" s="1"/>
-      <c r="B283" s="1"/>
+      <c r="A283" s="8"/>
+      <c r="B283" s="8"/>
       <c r="C283" s="1"/>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A284" s="1"/>
-      <c r="B284" s="1"/>
+      <c r="A284" s="8"/>
+      <c r="B284" s="8"/>
       <c r="C284" s="1"/>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A285" s="1"/>
-      <c r="B285" s="1"/>
+      <c r="A285" s="8"/>
+      <c r="B285" s="8"/>
       <c r="C285" s="1"/>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A286" s="1"/>
-      <c r="B286" s="1"/>
+      <c r="A286" s="8"/>
+      <c r="B286" s="8"/>
       <c r="C286" s="1"/>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A287" s="1"/>
-      <c r="B287" s="1"/>
+      <c r="A287" s="8"/>
+      <c r="B287" s="8"/>
       <c r="C287" s="1"/>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A288" s="1"/>
-      <c r="B288" s="1"/>
+      <c r="A288" s="8"/>
+      <c r="B288" s="8"/>
       <c r="C288" s="1"/>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A289" s="1"/>
-      <c r="B289" s="1"/>
+      <c r="A289" s="8"/>
+      <c r="B289" s="8"/>
       <c r="C289" s="1"/>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A290" s="1"/>
-      <c r="B290" s="1"/>
+      <c r="A290" s="8"/>
+      <c r="B290" s="8"/>
       <c r="C290" s="1"/>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A291" s="1"/>
-      <c r="B291" s="1"/>
+      <c r="A291" s="8"/>
+      <c r="B291" s="8"/>
       <c r="C291" s="1"/>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A292" s="1"/>
-      <c r="B292" s="1"/>
+      <c r="A292" s="8"/>
+      <c r="B292" s="8"/>
       <c r="C292" s="1"/>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A293" s="1"/>
-      <c r="B293" s="1"/>
+      <c r="A293" s="8"/>
+      <c r="B293" s="8"/>
       <c r="C293" s="1"/>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A294" s="1"/>
-      <c r="B294" s="1"/>
+      <c r="A294" s="8"/>
+      <c r="B294" s="8"/>
       <c r="C294" s="1"/>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A295" s="1"/>
-      <c r="B295" s="1"/>
+      <c r="A295" s="8"/>
+      <c r="B295" s="8"/>
       <c r="C295" s="1"/>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A296" s="1"/>
-      <c r="B296" s="1"/>
+      <c r="A296" s="8"/>
+      <c r="B296" s="8"/>
       <c r="C296" s="1"/>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A297" s="1"/>
-      <c r="B297" s="1"/>
+      <c r="A297" s="8"/>
+      <c r="B297" s="8"/>
       <c r="C297" s="1"/>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A298" s="1"/>
-      <c r="B298" s="1"/>
+      <c r="A298" s="8"/>
+      <c r="B298" s="8"/>
       <c r="C298" s="1"/>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A299" s="1"/>
-      <c r="B299" s="1"/>
+      <c r="A299" s="8"/>
+      <c r="B299" s="8"/>
       <c r="C299" s="1"/>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A300" s="1"/>
-      <c r="B300" s="1"/>
+      <c r="A300" s="8"/>
+      <c r="B300" s="8"/>
       <c r="C300" s="1"/>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A301" s="1"/>
-      <c r="B301" s="1"/>
+      <c r="A301" s="8"/>
+      <c r="B301" s="8"/>
       <c r="C301" s="1"/>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A302" s="1"/>
-      <c r="B302" s="1"/>
+      <c r="A302" s="8"/>
+      <c r="B302" s="8"/>
       <c r="C302" s="1"/>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A303" s="1"/>
-      <c r="B303" s="1"/>
+      <c r="A303" s="8"/>
+      <c r="B303" s="8"/>
       <c r="C303" s="1"/>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A304" s="1"/>
-      <c r="B304" s="1"/>
+      <c r="A304" s="8"/>
+      <c r="B304" s="8"/>
       <c r="C304" s="1"/>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A305" s="1"/>
-      <c r="B305" s="1"/>
+      <c r="A305" s="8"/>
+      <c r="B305" s="8"/>
       <c r="C305" s="1"/>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A306" s="1"/>
-      <c r="B306" s="1"/>
+      <c r="A306" s="8"/>
+      <c r="B306" s="8"/>
       <c r="C306" s="1"/>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A307" s="1"/>
-      <c r="B307" s="1"/>
+      <c r="A307" s="8"/>
+      <c r="B307" s="8"/>
       <c r="C307" s="1"/>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A308" s="1"/>
-      <c r="B308" s="1"/>
+      <c r="A308" s="8"/>
+      <c r="B308" s="8"/>
       <c r="C308" s="1"/>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A309" s="1"/>
-      <c r="B309" s="1"/>
+      <c r="A309" s="8"/>
+      <c r="B309" s="8"/>
       <c r="C309" s="1"/>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A310" s="1"/>
-      <c r="B310" s="1"/>
+      <c r="A310" s="8"/>
+      <c r="B310" s="8"/>
       <c r="C310" s="1"/>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A311" s="1"/>
-      <c r="B311" s="1"/>
+      <c r="A311" s="8"/>
+      <c r="B311" s="8"/>
       <c r="C311" s="1"/>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A312" s="1"/>
-      <c r="B312" s="1"/>
+      <c r="A312" s="8"/>
+      <c r="B312" s="8"/>
       <c r="C312" s="1"/>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A313" s="1"/>
-      <c r="B313" s="1"/>
+      <c r="A313" s="8"/>
+      <c r="B313" s="8"/>
       <c r="C313" s="1"/>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A314" s="1"/>
-      <c r="B314" s="1"/>
+      <c r="A314" s="8"/>
+      <c r="B314" s="8"/>
       <c r="C314" s="1"/>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A315" s="1"/>
-      <c r="B315" s="1"/>
+      <c r="A315" s="8"/>
+      <c r="B315" s="8"/>
       <c r="C315" s="1"/>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A316" s="1"/>
-      <c r="B316" s="1"/>
+      <c r="A316" s="8"/>
+      <c r="B316" s="8"/>
       <c r="C316" s="1"/>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A317" s="1"/>
-      <c r="B317" s="1"/>
+      <c r="A317" s="8"/>
+      <c r="B317" s="8"/>
       <c r="C317" s="1"/>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A318" s="1"/>
-      <c r="B318" s="1"/>
+      <c r="A318" s="8"/>
+      <c r="B318" s="8"/>
       <c r="C318" s="1"/>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A319" s="1"/>
-      <c r="B319" s="1"/>
+      <c r="A319" s="8"/>
+      <c r="B319" s="8"/>
       <c r="C319" s="1"/>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A320" s="1"/>
-      <c r="B320" s="1"/>
+      <c r="A320" s="8"/>
+      <c r="B320" s="8"/>
       <c r="C320" s="1"/>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A321" s="1"/>
-      <c r="B321" s="1"/>
+      <c r="A321" s="8"/>
+      <c r="B321" s="8"/>
       <c r="C321" s="1"/>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A322" s="1"/>
-      <c r="B322" s="1"/>
+      <c r="A322" s="8"/>
+      <c r="B322" s="8"/>
       <c r="C322" s="1"/>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A323" s="1"/>
-      <c r="B323" s="1"/>
+      <c r="A323" s="8"/>
+      <c r="B323" s="8"/>
       <c r="C323" s="1"/>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A324" s="1"/>
-      <c r="B324" s="1"/>
+      <c r="A324" s="8"/>
+      <c r="B324" s="8"/>
       <c r="C324" s="1"/>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A325" s="1"/>
-      <c r="B325" s="1"/>
+      <c r="A325" s="8"/>
+      <c r="B325" s="8"/>
       <c r="C325" s="1"/>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A326" s="1"/>
-      <c r="B326" s="1"/>
+      <c r="A326" s="8"/>
+      <c r="B326" s="8"/>
       <c r="C326" s="1"/>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A327" s="1"/>
-      <c r="B327" s="1"/>
+      <c r="A327" s="8"/>
+      <c r="B327" s="8"/>
       <c r="C327" s="1"/>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A328" s="1"/>
-      <c r="B328" s="1"/>
+      <c r="A328" s="8"/>
+      <c r="B328" s="8"/>
       <c r="C328" s="1"/>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.25">
@@ -7329,6 +7343,27 @@
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="A116:B116"/>
+    <mergeCell ref="A129:B129"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="A108:B108"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A146:B146"/>
+    <mergeCell ref="A156:B156"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="A167:B167"/>
+    <mergeCell ref="A172:B172"/>
+    <mergeCell ref="A162:B162"/>
+    <mergeCell ref="A176:B176"/>
+    <mergeCell ref="A180:B180"/>
     <mergeCell ref="A251:B251"/>
     <mergeCell ref="A247:B247"/>
     <mergeCell ref="A242:B242"/>
@@ -7339,28 +7374,8 @@
     <mergeCell ref="A214:B214"/>
     <mergeCell ref="A206:B206"/>
     <mergeCell ref="A210:B210"/>
-    <mergeCell ref="A167:B167"/>
-    <mergeCell ref="A172:B172"/>
-    <mergeCell ref="A162:B162"/>
-    <mergeCell ref="A176:B176"/>
-    <mergeCell ref="A180:B180"/>
-    <mergeCell ref="A146:B146"/>
-    <mergeCell ref="A156:B156"/>
-    <mergeCell ref="A87:B87"/>
-    <mergeCell ref="A92:B92"/>
-    <mergeCell ref="A96:B96"/>
-    <mergeCell ref="A101:B101"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="A116:B116"/>
-    <mergeCell ref="A129:B129"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="A108:B108"/>
-    <mergeCell ref="A47:B47"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/PRIMERAS TABLAS.xlsx.xlsx
+++ b/PRIMERAS TABLAS.xlsx.xlsx
@@ -964,7 +964,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1005,12 +1005,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1061,7 +1055,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1077,13 +1071,9 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1094,7 +1084,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1377,8 +1367,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A214" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B223" sqref="B223"/>
+    <sheetView tabSelected="1" topLeftCell="A241" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A251" sqref="A251:B251"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1391,10 +1381,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14"/>
+      <c r="B1" s="12"/>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1622,10 +1612,10 @@
       <c r="C25" s="1"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="16" t="s">
+      <c r="A26" s="14" t="s">
         <v>311</v>
       </c>
-      <c r="B26" s="17"/>
+      <c r="B26" s="15"/>
       <c r="C26" s="1" t="s">
         <v>53</v>
       </c>
@@ -1735,10 +1725,10 @@
       <c r="C38" s="1"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="16" t="s">
+      <c r="A39" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="B39" s="17"/>
+      <c r="B39" s="15"/>
       <c r="C39" s="1" t="s">
         <v>72</v>
       </c>
@@ -1804,10 +1794,10 @@
       <c r="C46" s="1"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="16" t="s">
+      <c r="A47" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="B47" s="17"/>
+      <c r="B47" s="15"/>
       <c r="C47" s="1" t="s">
         <v>79</v>
       </c>
@@ -1872,10 +1862,10 @@
       <c r="C54" s="1"/>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="16" t="s">
+      <c r="A55" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="B55" s="17"/>
+      <c r="B55" s="15"/>
       <c r="C55" s="1" t="s">
         <v>92</v>
       </c>
@@ -1922,10 +1912,10 @@
       <c r="C60" s="1"/>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="16" t="s">
+      <c r="A61" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="B61" s="17"/>
+      <c r="B61" s="15"/>
       <c r="C61" s="1" t="s">
         <v>97</v>
       </c>
@@ -2014,10 +2004,10 @@
       <c r="C70" s="1"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="15" t="s">
+      <c r="A71" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="B71" s="14"/>
+      <c r="B71" s="12"/>
       <c r="C71" s="1" t="s">
         <v>112</v>
       </c>
@@ -2150,10 +2140,10 @@
       <c r="C86" s="1"/>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A87" s="15" t="s">
+      <c r="A87" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="B87" s="14"/>
+      <c r="B87" s="12"/>
       <c r="C87" s="1" t="s">
         <v>129</v>
       </c>
@@ -2192,10 +2182,10 @@
       <c r="C91" s="1"/>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A92" s="15" t="s">
+      <c r="A92" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B92" s="14"/>
+      <c r="B92" s="12"/>
       <c r="C92" s="1" t="s">
         <v>130</v>
       </c>
@@ -2224,10 +2214,10 @@
       <c r="C95" s="1"/>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A96" s="15" t="s">
+      <c r="A96" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="B96" s="14"/>
+      <c r="B96" s="12"/>
       <c r="C96" s="1" t="s">
         <v>133</v>
       </c>
@@ -2265,10 +2255,10 @@
       <c r="C100" s="1"/>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A101" s="15" t="s">
+      <c r="A101" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="B101" s="14"/>
+      <c r="B101" s="12"/>
       <c r="C101" s="9" t="s">
         <v>138</v>
       </c>
@@ -2320,10 +2310,10 @@
       <c r="C107" s="1"/>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A108" s="13" t="s">
+      <c r="A108" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B108" s="14"/>
+      <c r="B108" s="12"/>
       <c r="C108" s="1" t="s">
         <v>141</v>
       </c>
@@ -2390,10 +2380,10 @@
       <c r="C115" s="1"/>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A116" s="15" t="s">
+      <c r="A116" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="B116" s="14"/>
+      <c r="B116" s="12"/>
       <c r="C116" s="1" t="s">
         <v>148</v>
       </c>
@@ -2506,10 +2496,10 @@
       <c r="C128" s="1"/>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A129" s="13" t="s">
+      <c r="A129" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="B129" s="14"/>
+      <c r="B129" s="12"/>
       <c r="C129" s="1" t="s">
         <v>163</v>
       </c>
@@ -2653,10 +2643,10 @@
       <c r="C145" s="1"/>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A146" s="13" t="s">
+      <c r="A146" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="B146" s="14"/>
+      <c r="B146" s="12"/>
       <c r="C146" s="1" t="s">
         <v>183</v>
       </c>
@@ -2735,10 +2725,10 @@
       <c r="C155" s="1"/>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A156" s="13" t="s">
+      <c r="A156" s="11" t="s">
         <v>194</v>
       </c>
-      <c r="B156" s="14"/>
+      <c r="B156" s="12"/>
       <c r="C156" s="1" t="s">
         <v>195</v>
       </c>
@@ -2785,10 +2775,10 @@
       <c r="C161" s="1"/>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A162" s="13" t="s">
+      <c r="A162" s="11" t="s">
         <v>200</v>
       </c>
-      <c r="B162" s="14"/>
+      <c r="B162" s="12"/>
       <c r="C162" s="1"/>
       <c r="D162" s="1" t="s">
         <v>201</v>
@@ -2832,10 +2822,10 @@
       <c r="C166" s="1"/>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A167" s="13" t="s">
+      <c r="A167" s="11" t="s">
         <v>205</v>
       </c>
-      <c r="B167" s="14"/>
+      <c r="B167" s="12"/>
       <c r="C167" s="1" t="s">
         <v>206</v>
       </c>
@@ -2873,10 +2863,10 @@
       <c r="C171" s="1"/>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A172" s="13" t="s">
+      <c r="A172" s="11" t="s">
         <v>209</v>
       </c>
-      <c r="B172" s="14"/>
+      <c r="B172" s="12"/>
       <c r="C172" s="10" t="s">
         <v>210</v>
       </c>
@@ -2905,10 +2895,10 @@
       <c r="C175" s="1"/>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A176" s="13" t="s">
+      <c r="A176" s="11" t="s">
         <v>211</v>
       </c>
-      <c r="B176" s="14"/>
+      <c r="B176" s="12"/>
       <c r="C176" s="1" t="s">
         <v>212</v>
       </c>
@@ -2939,10 +2929,10 @@
       <c r="C179" s="1"/>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A180" s="13" t="s">
+      <c r="A180" s="11" t="s">
         <v>214</v>
       </c>
-      <c r="B180" s="14"/>
+      <c r="B180" s="12"/>
       <c r="C180" s="1" t="s">
         <v>215</v>
       </c>
@@ -2985,10 +2975,10 @@
       <c r="C185" s="1"/>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A186" s="13" t="s">
+      <c r="A186" s="11" t="s">
         <v>218</v>
       </c>
-      <c r="B186" s="14"/>
+      <c r="B186" s="12"/>
       <c r="C186" s="1" t="s">
         <v>219</v>
       </c>
@@ -3078,10 +3068,10 @@
       <c r="C196" s="1"/>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A197" s="13" t="s">
+      <c r="A197" s="11" t="s">
         <v>234</v>
       </c>
-      <c r="B197" s="14"/>
+      <c r="B197" s="12"/>
       <c r="C197" s="1" t="s">
         <v>235</v>
       </c>
@@ -3110,10 +3100,10 @@
       <c r="C200" s="1"/>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A201" s="13" t="s">
+      <c r="A201" s="11" t="s">
         <v>236</v>
       </c>
-      <c r="B201" s="14"/>
+      <c r="B201" s="12"/>
       <c r="C201" s="1" t="s">
         <v>237</v>
       </c>
@@ -3151,10 +3141,10 @@
       <c r="C205" s="1"/>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A206" s="13" t="s">
+      <c r="A206" s="11" t="s">
         <v>241</v>
       </c>
-      <c r="B206" s="14"/>
+      <c r="B206" s="12"/>
       <c r="C206" s="1" t="s">
         <v>242</v>
       </c>
@@ -3183,11 +3173,11 @@
       <c r="C209" s="1"/>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A210" s="13" t="s">
+      <c r="A210" s="11" t="s">
         <v>243</v>
       </c>
-      <c r="B210" s="14"/>
-      <c r="C210" s="18" t="s">
+      <c r="B210" s="12"/>
+      <c r="C210" s="16" t="s">
         <v>244</v>
       </c>
     </row>
@@ -3215,10 +3205,10 @@
       <c r="C213" s="1"/>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A214" s="13" t="s">
+      <c r="A214" s="11" t="s">
         <v>245</v>
       </c>
-      <c r="B214" s="14"/>
+      <c r="B214" s="12"/>
       <c r="C214" s="1" t="s">
         <v>246</v>
       </c>
@@ -3427,10 +3417,10 @@
       <c r="C237" s="1"/>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A238" s="13" t="s">
+      <c r="A238" s="11" t="s">
         <v>284</v>
       </c>
-      <c r="B238" s="14"/>
+      <c r="B238" s="12"/>
       <c r="C238" s="1" t="s">
         <v>285</v>
       </c>
@@ -3459,10 +3449,10 @@
       <c r="C241" s="1"/>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A242" s="13" t="s">
+      <c r="A242" s="11" t="s">
         <v>286</v>
       </c>
-      <c r="B242" s="14"/>
+      <c r="B242" s="12"/>
       <c r="C242" s="1" t="s">
         <v>287</v>
       </c>
